--- a/database/industries/felezat/kimia/cost/quarterly.xlsx
+++ b/database/industries/felezat/kimia/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF2695-4DDF-42AF-A56B-43D3F0A759F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیا-معدنی کیمیای زنجان گستران</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +426,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -437,7 +438,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -484,6 +485,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -519,6 +537,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,17 +705,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -690,7 +725,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,7 +737,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -714,7 +749,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -724,7 +759,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -736,7 +771,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -748,7 +783,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -758,7 +793,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -780,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -790,95 +825,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1542142</v>
+        <v>822820</v>
       </c>
       <c r="F10" s="9">
-        <v>822820</v>
+        <v>954733</v>
       </c>
       <c r="G10" s="9">
-        <v>954733</v>
+        <v>1359472</v>
       </c>
       <c r="H10" s="9">
-        <v>1359472</v>
+        <v>1116233</v>
       </c>
       <c r="I10" s="9">
-        <v>1116233</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>295160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>23132</v>
+        <v>21727</v>
       </c>
       <c r="F11" s="11">
-        <v>21727</v>
+        <v>20841</v>
       </c>
       <c r="G11" s="11">
-        <v>20841</v>
+        <v>32432</v>
       </c>
       <c r="H11" s="11">
-        <v>32432</v>
+        <v>34548</v>
       </c>
       <c r="I11" s="11">
-        <v>34548</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33930</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>166707</v>
+        <v>320877</v>
       </c>
       <c r="F12" s="9">
-        <v>320877</v>
+        <v>93370</v>
       </c>
       <c r="G12" s="9">
-        <v>93370</v>
+        <v>109221</v>
       </c>
       <c r="H12" s="9">
-        <v>109221</v>
+        <v>295507</v>
       </c>
       <c r="I12" s="9">
-        <v>295507</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230458</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1731981</v>
+        <v>1165424</v>
       </c>
       <c r="F13" s="13">
-        <v>1165424</v>
+        <v>1068944</v>
       </c>
       <c r="G13" s="13">
-        <v>1068944</v>
+        <v>1501125</v>
       </c>
       <c r="H13" s="13">
-        <v>1501125</v>
+        <v>1446288</v>
       </c>
       <c r="I13" s="13">
-        <v>1446288</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>559548</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -900,29 +935,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1731981</v>
+        <v>1165424</v>
       </c>
       <c r="F15" s="13">
-        <v>1165424</v>
+        <v>1068944</v>
       </c>
       <c r="G15" s="13">
-        <v>1068944</v>
+        <v>1501125</v>
       </c>
       <c r="H15" s="13">
-        <v>1501125</v>
+        <v>1446288</v>
       </c>
       <c r="I15" s="13">
-        <v>1446288</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>559548</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -944,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -966,29 +1001,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1731981</v>
+        <v>1165424</v>
       </c>
       <c r="F18" s="15">
-        <v>1165424</v>
+        <v>1068944</v>
       </c>
       <c r="G18" s="15">
-        <v>1068944</v>
+        <v>1501125</v>
       </c>
       <c r="H18" s="15">
-        <v>1501125</v>
+        <v>1446288</v>
       </c>
       <c r="I18" s="15">
-        <v>1446288</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>559548</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -998,63 +1033,63 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>442500</v>
       </c>
       <c r="G19" s="11">
-        <v>1690466</v>
+        <v>607964</v>
       </c>
       <c r="H19" s="11">
-        <v>607964</v>
+        <v>1126406</v>
       </c>
       <c r="I19" s="11">
-        <v>1126406</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>774469</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-326122</v>
+        <v>-442500</v>
       </c>
       <c r="F20" s="9">
-        <v>-442500</v>
+        <v>-607964</v>
       </c>
       <c r="G20" s="9">
-        <v>-607964</v>
+        <v>-1126406</v>
       </c>
       <c r="H20" s="9">
-        <v>-1126406</v>
+        <v>-774469</v>
       </c>
       <c r="I20" s="9">
-        <v>-774469</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-582676</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1405859</v>
+        <v>722924</v>
       </c>
       <c r="F21" s="13">
-        <v>722924</v>
+        <v>2151446</v>
       </c>
       <c r="G21" s="13">
-        <v>2151446</v>
+        <v>982683</v>
       </c>
       <c r="H21" s="13">
-        <v>982683</v>
+        <v>1798225</v>
       </c>
       <c r="I21" s="13">
-        <v>1798225</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>751341</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1076,29 +1111,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1405859</v>
+        <v>722924</v>
       </c>
       <c r="F23" s="13">
-        <v>722924</v>
+        <v>2151446</v>
       </c>
       <c r="G23" s="13">
-        <v>2151446</v>
+        <v>982683</v>
       </c>
       <c r="H23" s="13">
-        <v>982683</v>
+        <v>1798225</v>
       </c>
       <c r="I23" s="13">
-        <v>1798225</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>751341</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1108,7 +1143,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1118,7 +1153,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1128,7 +1163,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1160,7 +1195,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1169,44 +1204,44 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>11251</v>
+        <v>9601</v>
       </c>
       <c r="F29" s="9">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="G29" s="9">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="H29" s="9">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="I29" s="9">
-        <v>7103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>11251</v>
+        <v>9601</v>
       </c>
       <c r="F30" s="13">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="G30" s="13">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="H30" s="13">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="I30" s="13">
-        <v>7103</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1216,7 +1251,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1226,7 +1261,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1236,7 +1271,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1268,7 +1303,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1277,44 +1312,44 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>52541</v>
+        <v>20192</v>
       </c>
       <c r="F36" s="9">
-        <v>20192</v>
+        <v>31539</v>
       </c>
       <c r="G36" s="9">
-        <v>31539</v>
+        <v>26434</v>
       </c>
       <c r="H36" s="9">
-        <v>26434</v>
+        <v>-9215</v>
       </c>
       <c r="I36" s="9">
-        <v>-9215</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48741</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>52541</v>
+        <v>20192</v>
       </c>
       <c r="F37" s="13">
-        <v>20192</v>
+        <v>31539</v>
       </c>
       <c r="G37" s="13">
-        <v>31539</v>
+        <v>26434</v>
       </c>
       <c r="H37" s="13">
-        <v>26434</v>
+        <v>-9215</v>
       </c>
       <c r="I37" s="13">
-        <v>-9215</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48741</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1324,7 +1359,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1334,7 +1369,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1344,7 +1379,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1376,7 +1411,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1385,44 +1420,44 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>54191</v>
+        <v>18195</v>
       </c>
       <c r="F43" s="9">
-        <v>18195</v>
+        <v>27932</v>
       </c>
       <c r="G43" s="9">
-        <v>27932</v>
+        <v>34536</v>
       </c>
       <c r="H43" s="9">
-        <v>34536</v>
+        <v>-8153</v>
       </c>
       <c r="I43" s="9">
-        <v>-8153</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>54191</v>
+        <v>18195</v>
       </c>
       <c r="F44" s="13">
-        <v>18195</v>
+        <v>27932</v>
       </c>
       <c r="G44" s="13">
-        <v>27932</v>
+        <v>34536</v>
       </c>
       <c r="H44" s="13">
-        <v>34536</v>
+        <v>-8153</v>
       </c>
       <c r="I44" s="13">
-        <v>-8153</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1432,7 +1467,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1442,7 +1477,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1452,7 +1487,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1484,7 +1519,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1493,44 +1528,44 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="F50" s="9">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="G50" s="9">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="H50" s="9">
-        <v>7103</v>
+        <v>6041</v>
       </c>
       <c r="I50" s="9">
-        <v>6041</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11907</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="F51" s="13">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="G51" s="13">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="H51" s="13">
-        <v>7103</v>
+        <v>6041</v>
       </c>
       <c r="I51" s="13">
-        <v>6041</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11907</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1540,7 +1575,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1550,7 +1585,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1560,7 +1595,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>29</v>
       </c>
@@ -1582,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1592,7 +1627,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
@@ -1601,44 +1636,44 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>502921</v>
+        <v>371246</v>
       </c>
       <c r="F57" s="9">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="G57" s="9">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="H57" s="9">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="I57" s="9">
-        <v>70543</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71933</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>502921</v>
+        <v>371246</v>
       </c>
       <c r="F58" s="13">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="G58" s="13">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="H58" s="13">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="I58" s="13">
-        <v>70543</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71933</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1648,7 +1683,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1658,7 +1693,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1668,7 +1703,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>31</v>
       </c>
@@ -1690,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1700,7 +1735,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
@@ -1709,44 +1744,44 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>1410467</v>
+        <v>1089657</v>
       </c>
       <c r="F64" s="9">
-        <v>1089657</v>
+        <v>1336508</v>
       </c>
       <c r="G64" s="9">
-        <v>1336508</v>
+        <v>410157</v>
       </c>
       <c r="H64" s="9">
-        <v>410157</v>
+        <v>1117623</v>
       </c>
       <c r="I64" s="9">
-        <v>1117623</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>970632</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>1410467</v>
+        <v>1089657</v>
       </c>
       <c r="F65" s="13">
-        <v>1089657</v>
+        <v>1336508</v>
       </c>
       <c r="G65" s="13">
-        <v>1336508</v>
+        <v>410157</v>
       </c>
       <c r="H65" s="13">
-        <v>410157</v>
+        <v>1117623</v>
       </c>
       <c r="I65" s="13">
-        <v>1117623</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>970632</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1756,7 +1791,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1766,7 +1801,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1776,7 +1811,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>32</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1808,7 +1843,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -1817,44 +1852,44 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>1542142</v>
+        <v>822820</v>
       </c>
       <c r="F71" s="9">
-        <v>822820</v>
+        <v>954733</v>
       </c>
       <c r="G71" s="9">
-        <v>954733</v>
+        <v>1359472</v>
       </c>
       <c r="H71" s="9">
-        <v>1359472</v>
+        <v>1116233</v>
       </c>
       <c r="I71" s="9">
-        <v>1116233</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>295160</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>1542142</v>
+        <v>822820</v>
       </c>
       <c r="F72" s="13">
-        <v>822820</v>
+        <v>954733</v>
       </c>
       <c r="G72" s="13">
-        <v>954733</v>
+        <v>1359472</v>
       </c>
       <c r="H72" s="13">
-        <v>1359472</v>
+        <v>1116233</v>
       </c>
       <c r="I72" s="13">
-        <v>1116233</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>295160</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1864,7 +1899,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1874,7 +1909,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1884,7 +1919,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>33</v>
       </c>
@@ -1906,7 +1941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1916,7 +1951,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
@@ -1925,44 +1960,44 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="F78" s="9">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="G78" s="9">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="H78" s="9">
-        <v>70543</v>
+        <v>71933</v>
       </c>
       <c r="I78" s="9">
-        <v>71933</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747405</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="F79" s="13">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="G79" s="13">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="H79" s="13">
-        <v>70543</v>
+        <v>71933</v>
       </c>
       <c r="I79" s="13">
-        <v>71933</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747405</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1972,7 +2007,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1982,7 +2017,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1992,7 +2027,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>34</v>
       </c>
@@ -2014,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2024,7 +2059,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2033,22 +2068,22 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>44700116</v>
+        <v>38667430</v>
       </c>
       <c r="F85" s="9">
-        <v>38667430</v>
+        <v>55016641</v>
       </c>
       <c r="G85" s="9">
-        <v>55016641</v>
+        <v>67073857</v>
       </c>
       <c r="H85" s="9">
-        <v>67073857</v>
+        <v>9931437</v>
       </c>
       <c r="I85" s="9">
-        <v>9931437</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11907466</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2058,7 +2093,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2068,7 +2103,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2078,7 +2113,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>36</v>
       </c>
@@ -2100,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2110,7 +2145,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
@@ -2119,22 +2154,22 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>26845073</v>
+        <v>53964788</v>
       </c>
       <c r="F91" s="9">
-        <v>53964788</v>
+        <v>42376359</v>
       </c>
       <c r="G91" s="9">
-        <v>42376359</v>
+        <v>15516267</v>
       </c>
       <c r="H91" s="9">
-        <v>15516267</v>
+        <v>-121283017</v>
       </c>
       <c r="I91" s="9">
-        <v>-121283017</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19914076</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2144,7 +2179,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2154,7 +2189,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2164,7 +2199,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>37</v>
       </c>
@@ -2186,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2196,7 +2231,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
@@ -2205,22 +2240,22 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>28457530</v>
+        <v>45222314</v>
       </c>
       <c r="F97" s="9">
-        <v>45222314</v>
+        <v>34180617</v>
       </c>
       <c r="G97" s="9">
-        <v>34180617</v>
+        <v>39363910</v>
       </c>
       <c r="H97" s="9">
-        <v>39363910</v>
+        <v>-136910708</v>
       </c>
       <c r="I97" s="9">
-        <v>-136910708</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6884359</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2230,7 +2265,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2240,7 +2275,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2250,7 +2285,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>38</v>
       </c>
@@ -2272,7 +2307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2282,7 +2317,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2291,22 +2326,22 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>38667430</v>
+        <v>55016641</v>
       </c>
       <c r="F103" s="9">
-        <v>55016641</v>
+        <v>67073857</v>
       </c>
       <c r="G103" s="9">
-        <v>67073857</v>
+        <v>9931437</v>
       </c>
       <c r="H103" s="9">
-        <v>9931437</v>
+        <v>11907466</v>
       </c>
       <c r="I103" s="9">
-        <v>11907466</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62770219</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2316,7 +2351,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2326,7 +2361,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2336,7 +2371,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>39</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2368,7 +2403,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>40</v>
       </c>
@@ -2390,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>41</v>
       </c>
@@ -2412,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>43</v>
       </c>
@@ -2456,95 +2491,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>-13259</v>
+        <v>2394</v>
       </c>
       <c r="F113" s="9">
-        <v>2394</v>
+        <v>106400</v>
       </c>
       <c r="G113" s="9">
-        <v>106400</v>
+        <v>23891</v>
       </c>
       <c r="H113" s="9">
-        <v>23891</v>
+        <v>55194</v>
       </c>
       <c r="I113" s="9">
-        <v>55194</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>9911</v>
+        <v>9566</v>
       </c>
       <c r="F114" s="11">
-        <v>9566</v>
+        <v>15294</v>
       </c>
       <c r="G114" s="11">
-        <v>15294</v>
+        <v>3146</v>
       </c>
       <c r="H114" s="11">
-        <v>3146</v>
+        <v>4322</v>
       </c>
       <c r="I114" s="11">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>7104</v>
+        <v>7047</v>
       </c>
       <c r="F115" s="9">
-        <v>7047</v>
+        <v>6879</v>
       </c>
       <c r="G115" s="9">
-        <v>6879</v>
+        <v>6843</v>
       </c>
       <c r="H115" s="9">
-        <v>6843</v>
+        <v>7323</v>
       </c>
       <c r="I115" s="9">
-        <v>7323</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>90138</v>
+        <v>239357</v>
       </c>
       <c r="F116" s="11">
-        <v>239357</v>
+        <v>-260714</v>
       </c>
       <c r="G116" s="11">
-        <v>-260714</v>
+        <v>48567</v>
       </c>
       <c r="H116" s="11">
-        <v>48567</v>
+        <v>23776</v>
       </c>
       <c r="I116" s="11">
-        <v>23776</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>48</v>
       </c>
@@ -2566,51 +2601,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>72813</v>
+        <v>62513</v>
       </c>
       <c r="F118" s="11">
-        <v>62513</v>
+        <v>225511</v>
       </c>
       <c r="G118" s="11">
-        <v>225511</v>
+        <v>26774</v>
       </c>
       <c r="H118" s="11">
-        <v>26774</v>
+        <v>204892</v>
       </c>
       <c r="I118" s="11">
-        <v>204892</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>132839</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>166707</v>
+        <v>320877</v>
       </c>
       <c r="F119" s="15">
-        <v>320877</v>
+        <v>93370</v>
       </c>
       <c r="G119" s="15">
-        <v>93370</v>
+        <v>109221</v>
       </c>
       <c r="H119" s="15">
-        <v>109221</v>
+        <v>295507</v>
       </c>
       <c r="I119" s="15">
-        <v>295507</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230458</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2620,7 +2655,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2630,7 +2665,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2640,7 +2675,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>50</v>
       </c>
@@ -2652,7 +2687,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2662,7 +2697,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>51</v>
       </c>
@@ -2676,7 +2711,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>53</v>
       </c>
@@ -2687,7 +2722,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>55</v>
       </c>
@@ -2698,7 +2733,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>57</v>
       </c>
@@ -2709,7 +2744,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>59</v>
       </c>
@@ -2720,7 +2755,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>61</v>
       </c>
@@ -2731,7 +2766,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>63</v>
       </c>
@@ -2742,7 +2777,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2788,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>67</v>
       </c>
@@ -2764,7 +2799,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>68</v>
       </c>
@@ -2775,7 +2810,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>57</v>
       </c>
@@ -2786,7 +2821,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>71</v>
       </c>

--- a/database/industries/felezat/kimia/cost/quarterly.xlsx
+++ b/database/industries/felezat/kimia/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF2695-4DDF-42AF-A56B-43D3F0A759F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10C0013-4EB0-425A-B009-612316CECCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -706,16 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I136"/>
+  <dimension ref="B1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,8 +742,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +759,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,8 +776,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -758,8 +791,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -770,8 +808,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,8 +825,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -792,8 +840,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,8 +867,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -824,98 +892,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>318124</v>
+      </c>
+      <c r="F10" s="9">
+        <v>771054</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1465087</v>
+      </c>
+      <c r="H10" s="9">
+        <v>929335</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1542142</v>
+      </c>
+      <c r="J10" s="9">
         <v>822820</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>954733</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1359472</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1116233</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>295160</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>15002</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15076</v>
+      </c>
+      <c r="G11" s="11">
+        <v>15222</v>
+      </c>
+      <c r="H11" s="11">
+        <v>22606</v>
+      </c>
+      <c r="I11" s="11">
+        <v>23132</v>
+      </c>
+      <c r="J11" s="11">
         <v>21727</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>20841</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>32432</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>34548</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>33930</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>70394</v>
+      </c>
+      <c r="F12" s="9">
+        <v>75558</v>
+      </c>
+      <c r="G12" s="9">
+        <v>84605</v>
+      </c>
+      <c r="H12" s="9">
+        <v>66066</v>
+      </c>
+      <c r="I12" s="9">
+        <v>166707</v>
+      </c>
+      <c r="J12" s="9">
         <v>320877</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>93370</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>109221</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>295507</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>230458</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>403520</v>
+      </c>
+      <c r="F13" s="13">
+        <v>861688</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1564914</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1018007</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1731981</v>
+      </c>
+      <c r="J13" s="13">
         <v>1165424</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1068944</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1501125</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1446288</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>559548</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -934,32 +1067,62 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>403520</v>
+      </c>
+      <c r="F15" s="13">
+        <v>861688</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1564914</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1018007</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1731981</v>
+      </c>
+      <c r="J15" s="13">
         <v>1165424</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1068944</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1501125</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1446288</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>559548</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -978,15 +1141,30 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -1000,98 +1178,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>403612</v>
+      </c>
+      <c r="F18" s="15">
+        <v>861688</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1564914</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1018007</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1731981</v>
+      </c>
+      <c r="J18" s="15">
         <v>1165424</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1068944</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1501125</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1446288</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>559548</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>614994</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>442500</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>607964</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>1126406</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>774469</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-11166</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-513300</v>
+      </c>
+      <c r="G20" s="9">
+        <v>217565</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-921844</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-326122</v>
+      </c>
+      <c r="J20" s="9">
         <v>-442500</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-607964</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-1126406</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-774469</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-582676</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>392353</v>
+      </c>
+      <c r="F21" s="13">
+        <v>348388</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1782479</v>
+      </c>
+      <c r="H21" s="13">
+        <v>711157</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1405859</v>
+      </c>
+      <c r="J21" s="13">
         <v>722924</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>2151446</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>982683</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1798225</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>751341</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1110,30 +1363,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>392353</v>
+      </c>
+      <c r="F23" s="13">
+        <v>348388</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1782479</v>
+      </c>
+      <c r="H23" s="13">
+        <v>711157</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1405859</v>
+      </c>
+      <c r="J23" s="13">
         <v>722924</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>2151446</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>982683</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1798225</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>751341</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1142,8 +1425,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1152,8 +1440,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,10 +1455,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1184,8 +1482,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1194,54 +1507,89 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>21233</v>
+      </c>
+      <c r="F29" s="9">
+        <v>20005</v>
+      </c>
+      <c r="G29" s="9">
+        <v>12885</v>
+      </c>
+      <c r="H29" s="9">
+        <v>10444</v>
+      </c>
+      <c r="I29" s="9">
+        <v>11251</v>
+      </c>
+      <c r="J29" s="9">
         <v>9601</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>11598</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>15205</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>7103</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>6041</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>21233</v>
+      </c>
+      <c r="F30" s="13">
+        <v>20005</v>
+      </c>
+      <c r="G30" s="13">
+        <v>12885</v>
+      </c>
+      <c r="H30" s="13">
+        <v>10444</v>
+      </c>
+      <c r="I30" s="13">
+        <v>11251</v>
+      </c>
+      <c r="J30" s="13">
         <v>9601</v>
       </c>
-      <c r="F30" s="13">
+      <c r="K30" s="13">
         <v>11598</v>
       </c>
-      <c r="G30" s="13">
+      <c r="L30" s="13">
         <v>15205</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>7103</v>
       </c>
-      <c r="I30" s="13">
+      <c r="N30" s="13">
         <v>6041</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1250,8 +1598,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1260,8 +1613,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1270,10 +1628,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1292,8 +1655,23 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1302,54 +1680,89 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
+        <v>40203</v>
+      </c>
+      <c r="F36" s="9">
+        <v>-25364</v>
+      </c>
+      <c r="G36" s="9">
+        <v>65054</v>
+      </c>
+      <c r="H36" s="9">
+        <v>11693</v>
+      </c>
+      <c r="I36" s="9">
+        <v>52541</v>
+      </c>
+      <c r="J36" s="9">
         <v>20192</v>
       </c>
-      <c r="F36" s="9">
+      <c r="K36" s="9">
         <v>31539</v>
       </c>
-      <c r="G36" s="9">
+      <c r="L36" s="9">
         <v>26434</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>-9215</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>48741</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>40203</v>
+      </c>
+      <c r="F37" s="13">
+        <v>-25364</v>
+      </c>
+      <c r="G37" s="13">
+        <v>65054</v>
+      </c>
+      <c r="H37" s="13">
+        <v>11693</v>
+      </c>
+      <c r="I37" s="13">
+        <v>52541</v>
+      </c>
+      <c r="J37" s="13">
         <v>20192</v>
       </c>
-      <c r="F37" s="13">
+      <c r="K37" s="13">
         <v>31539</v>
       </c>
-      <c r="G37" s="13">
+      <c r="L37" s="13">
         <v>26434</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>-9215</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>48741</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1358,8 +1771,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1368,8 +1786,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1378,10 +1801,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1400,8 +1828,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1410,54 +1853,89 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>41431</v>
+      </c>
+      <c r="F43" s="9">
+        <v>-18244</v>
+      </c>
+      <c r="G43" s="9">
+        <v>67495</v>
+      </c>
+      <c r="H43" s="9">
+        <v>10886</v>
+      </c>
+      <c r="I43" s="9">
+        <v>54191</v>
+      </c>
+      <c r="J43" s="9">
         <v>18195</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>27932</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>34536</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>-8153</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>42874</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>41431</v>
+      </c>
+      <c r="F44" s="13">
+        <v>-18244</v>
+      </c>
+      <c r="G44" s="13">
+        <v>67495</v>
+      </c>
+      <c r="H44" s="13">
+        <v>10886</v>
+      </c>
+      <c r="I44" s="13">
+        <v>54191</v>
+      </c>
+      <c r="J44" s="13">
         <v>18195</v>
       </c>
-      <c r="F44" s="13">
+      <c r="K44" s="13">
         <v>27932</v>
       </c>
-      <c r="G44" s="13">
+      <c r="L44" s="13">
         <v>34536</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>-8153</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>42874</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1466,8 +1944,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1476,8 +1959,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1486,10 +1974,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1508,8 +2001,23 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1518,54 +2026,89 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>20005</v>
+      </c>
+      <c r="F50" s="9">
+        <v>12885</v>
+      </c>
+      <c r="G50" s="9">
+        <v>10444</v>
+      </c>
+      <c r="H50" s="9">
+        <v>11251</v>
+      </c>
+      <c r="I50" s="9">
+        <v>9601</v>
+      </c>
+      <c r="J50" s="9">
         <v>11598</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>15205</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>7103</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>6041</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>11907</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>20005</v>
+      </c>
+      <c r="F51" s="13">
+        <v>12885</v>
+      </c>
+      <c r="G51" s="13">
+        <v>10444</v>
+      </c>
+      <c r="H51" s="13">
+        <v>11251</v>
+      </c>
+      <c r="I51" s="13">
+        <v>9601</v>
+      </c>
+      <c r="J51" s="13">
         <v>11598</v>
       </c>
-      <c r="F51" s="13">
+      <c r="K51" s="13">
         <v>15205</v>
       </c>
-      <c r="G51" s="13">
+      <c r="L51" s="13">
         <v>7103</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>6041</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>11907</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1574,8 +2117,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1584,8 +2132,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1594,10 +2147,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1616,8 +2174,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1626,54 +2199,89 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>287493</v>
+      </c>
+      <c r="F57" s="9">
+        <v>186270</v>
+      </c>
+      <c r="G57" s="9">
+        <v>106884</v>
+      </c>
+      <c r="H57" s="9">
+        <v>306983</v>
+      </c>
+      <c r="I57" s="9">
+        <v>502921</v>
+      </c>
+      <c r="J57" s="9">
         <v>371246</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>638083</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>1019858</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>70543</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>71933</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>287493</v>
+      </c>
+      <c r="F58" s="13">
+        <v>186270</v>
+      </c>
+      <c r="G58" s="13">
+        <v>106884</v>
+      </c>
+      <c r="H58" s="13">
+        <v>306983</v>
+      </c>
+      <c r="I58" s="13">
+        <v>502921</v>
+      </c>
+      <c r="J58" s="13">
         <v>371246</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>638083</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>1019858</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>70543</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>71933</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1682,8 +2290,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1692,8 +2305,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1702,10 +2320,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1724,8 +2347,23 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1734,54 +2372,89 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>216901</v>
+      </c>
+      <c r="F64" s="9">
+        <v>691668</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1665186</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1125273</v>
+      </c>
+      <c r="I64" s="9">
+        <v>1410467</v>
+      </c>
+      <c r="J64" s="9">
         <v>1089657</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>1336508</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>410157</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>1117623</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>970632</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>216901</v>
+      </c>
+      <c r="F65" s="13">
+        <v>691668</v>
+      </c>
+      <c r="G65" s="13">
+        <v>1665186</v>
+      </c>
+      <c r="H65" s="13">
+        <v>1125273</v>
+      </c>
+      <c r="I65" s="13">
+        <v>1410467</v>
+      </c>
+      <c r="J65" s="13">
         <v>1089657</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>1336508</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>410157</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>1117623</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>970632</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1790,8 +2463,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1800,8 +2478,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1810,10 +2493,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1832,8 +2520,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1842,54 +2545,89 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>318124</v>
+      </c>
+      <c r="F71" s="9">
+        <v>771054</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1465087</v>
+      </c>
+      <c r="H71" s="9">
+        <v>929335</v>
+      </c>
+      <c r="I71" s="9">
+        <v>1542142</v>
+      </c>
+      <c r="J71" s="9">
         <v>822820</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>954733</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>1359472</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>1116233</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>295160</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>318124</v>
+      </c>
+      <c r="F72" s="13">
+        <v>771054</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1465087</v>
+      </c>
+      <c r="H72" s="13">
+        <v>929335</v>
+      </c>
+      <c r="I72" s="13">
+        <v>1542142</v>
+      </c>
+      <c r="J72" s="13">
         <v>822820</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>954733</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>1359472</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>1116233</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>295160</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1898,8 +2636,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1908,8 +2651,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1918,10 +2666,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1940,8 +2693,23 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1950,54 +2718,89 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>186270</v>
+      </c>
+      <c r="F78" s="9">
+        <v>106884</v>
+      </c>
+      <c r="G78" s="9">
+        <v>306983</v>
+      </c>
+      <c r="H78" s="9">
+        <v>502921</v>
+      </c>
+      <c r="I78" s="9">
+        <v>371246</v>
+      </c>
+      <c r="J78" s="9">
         <v>638083</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>1019858</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>70543</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>71933</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>747405</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
+        <v>186270</v>
+      </c>
+      <c r="F79" s="13">
+        <v>106884</v>
+      </c>
+      <c r="G79" s="13">
+        <v>306983</v>
+      </c>
+      <c r="H79" s="13">
+        <v>502921</v>
+      </c>
+      <c r="I79" s="13">
+        <v>371246</v>
+      </c>
+      <c r="J79" s="13">
         <v>638083</v>
       </c>
-      <c r="F79" s="13">
+      <c r="K79" s="13">
         <v>1019858</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>70543</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>71933</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>747405</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2006,8 +2809,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2016,8 +2824,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2026,10 +2839,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2048,8 +2866,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2058,32 +2891,52 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>13539914</v>
+      </c>
+      <c r="F85" s="9">
+        <v>9311172</v>
+      </c>
+      <c r="G85" s="9">
+        <v>8295227</v>
+      </c>
+      <c r="H85" s="9">
+        <v>29393240</v>
+      </c>
+      <c r="I85" s="9">
+        <v>44700116</v>
+      </c>
+      <c r="J85" s="9">
         <v>38667430</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>55016641</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>67073857</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>9931437</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>11907466</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2092,8 +2945,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2102,8 +2960,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2112,10 +2975,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2134,8 +3002,23 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2144,32 +3027,52 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>5395145</v>
+      </c>
+      <c r="F91" s="9">
+        <v>-27269674</v>
+      </c>
+      <c r="G91" s="9">
+        <v>25596981</v>
+      </c>
+      <c r="H91" s="9">
+        <v>96234756</v>
+      </c>
+      <c r="I91" s="9">
+        <v>26845073</v>
+      </c>
+      <c r="J91" s="9">
         <v>53964788</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>42376359</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>15516267</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>-121283017</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>19914076</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2178,8 +3081,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2188,8 +3096,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2198,10 +3111,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2220,8 +3138,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2230,32 +3163,52 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>7678405</v>
+      </c>
+      <c r="F97" s="9">
+        <v>-42263429</v>
+      </c>
+      <c r="G97" s="9">
+        <v>21706600</v>
+      </c>
+      <c r="H97" s="9">
+        <v>85369741</v>
+      </c>
+      <c r="I97" s="9">
+        <v>28457530</v>
+      </c>
+      <c r="J97" s="9">
         <v>45222314</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>34180617</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>39363910</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>-136910708</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>6884359</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2264,8 +3217,13 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2274,8 +3232,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2284,10 +3247,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2306,8 +3274,23 @@
       <c r="I101" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2316,32 +3299,52 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
+      <c r="E103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" s="9">
+        <v>38667430</v>
+      </c>
+      <c r="J103" s="9">
         <v>55016641</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>67073857</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>9931437</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>11907466</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>62770219</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2350,8 +3353,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2360,8 +3368,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2370,10 +3383,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2392,8 +3410,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2402,10 +3435,15 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -2424,10 +3462,25 @@
       <c r="I109" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="9">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9">
+        <v>0</v>
+      </c>
+      <c r="L109" s="9">
+        <v>0</v>
+      </c>
+      <c r="M109" s="9">
+        <v>0</v>
+      </c>
+      <c r="N109" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2446,10 +3499,25 @@
       <c r="I110" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2468,10 +3536,25 @@
       <c r="I111" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2490,98 +3573,173 @@
       <c r="I112" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>15171</v>
+      </c>
+      <c r="F113" s="9">
+        <v>16149</v>
+      </c>
+      <c r="G113" s="9">
+        <v>31454</v>
+      </c>
+      <c r="H113" s="9">
+        <v>16868</v>
+      </c>
+      <c r="I113" s="9">
+        <v>-13259</v>
+      </c>
+      <c r="J113" s="9">
         <v>2394</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>106400</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>23891</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>55194</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>43816</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>3504</v>
+      </c>
+      <c r="F114" s="11">
+        <v>3208</v>
+      </c>
+      <c r="G114" s="11">
+        <v>4279</v>
+      </c>
+      <c r="H114" s="11">
+        <v>2474</v>
+      </c>
+      <c r="I114" s="11">
+        <v>9911</v>
+      </c>
+      <c r="J114" s="11">
         <v>9566</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>15294</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>3146</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>4322</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>2234</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>4173</v>
+      </c>
+      <c r="F115" s="9">
+        <v>5815</v>
+      </c>
+      <c r="G115" s="9">
+        <v>5859</v>
+      </c>
+      <c r="H115" s="9">
+        <v>6587</v>
+      </c>
+      <c r="I115" s="9">
+        <v>7104</v>
+      </c>
+      <c r="J115" s="9">
         <v>7047</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>6879</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>6843</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>7323</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>6749</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>19707</v>
+      </c>
+      <c r="F116" s="11">
+        <v>16057</v>
+      </c>
+      <c r="G116" s="11">
+        <v>21874</v>
+      </c>
+      <c r="H116" s="11">
+        <v>20121</v>
+      </c>
+      <c r="I116" s="11">
+        <v>90138</v>
+      </c>
+      <c r="J116" s="11">
         <v>239357</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>-260714</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>48567</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>23776</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>44820</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2600,52 +3758,97 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>27839</v>
+      </c>
+      <c r="F118" s="11">
+        <v>34329</v>
+      </c>
+      <c r="G118" s="11">
+        <v>21139</v>
+      </c>
+      <c r="H118" s="11">
+        <v>20016</v>
+      </c>
+      <c r="I118" s="11">
+        <v>72813</v>
+      </c>
+      <c r="J118" s="11">
         <v>62513</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>225511</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>26774</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>204892</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>132839</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>70394</v>
+      </c>
+      <c r="F119" s="15">
+        <v>75558</v>
+      </c>
+      <c r="G119" s="15">
+        <v>84605</v>
+      </c>
+      <c r="H119" s="15">
+        <v>66066</v>
+      </c>
+      <c r="I119" s="15">
+        <v>166707</v>
+      </c>
+      <c r="J119" s="15">
         <v>320877</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>93370</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>109221</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>295507</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>230458</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2654,8 +3857,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2664,8 +3872,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2674,10 +3887,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2686,8 +3904,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2696,13 +3919,18 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -2710,123 +3938,128 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>

--- a/database/industries/felezat/kimia/cost/quarterly.xlsx
+++ b/database/industries/felezat/kimia/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10C0013-4EB0-425A-B009-612316CECCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA57AB-5F1B-4743-B92D-2A4739A0E921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -28,15 +28,12 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
-    <t>کیمیا-معدنی کیمیای زنجان گستران</t>
+    <t>کیمیا-ص. معدنی کیمیای زنجان گستران</t>
   </si>
   <si>
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -728,12 +728,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -846,7 +846,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -898,155 +898,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>318124</v>
+        <v>771054</v>
       </c>
       <c r="F10" s="9">
-        <v>771054</v>
+        <v>1465087</v>
       </c>
       <c r="G10" s="9">
-        <v>1465087</v>
+        <v>929335</v>
       </c>
       <c r="H10" s="9">
-        <v>929335</v>
+        <v>1542142</v>
       </c>
       <c r="I10" s="9">
-        <v>1542142</v>
+        <v>822820</v>
       </c>
       <c r="J10" s="9">
-        <v>822820</v>
+        <v>954733</v>
       </c>
       <c r="K10" s="9">
-        <v>954733</v>
+        <v>1359472</v>
       </c>
       <c r="L10" s="9">
-        <v>1359472</v>
+        <v>1116233</v>
       </c>
       <c r="M10" s="9">
-        <v>1116233</v>
+        <v>295160</v>
       </c>
       <c r="N10" s="9">
-        <v>295160</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1998623</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>15002</v>
+        <v>15076</v>
       </c>
       <c r="F11" s="11">
-        <v>15076</v>
+        <v>15222</v>
       </c>
       <c r="G11" s="11">
-        <v>15222</v>
+        <v>22606</v>
       </c>
       <c r="H11" s="11">
-        <v>22606</v>
+        <v>23132</v>
       </c>
       <c r="I11" s="11">
-        <v>23132</v>
+        <v>21727</v>
       </c>
       <c r="J11" s="11">
-        <v>21727</v>
+        <v>20841</v>
       </c>
       <c r="K11" s="11">
-        <v>20841</v>
+        <v>32432</v>
       </c>
       <c r="L11" s="11">
-        <v>32432</v>
+        <v>34548</v>
       </c>
       <c r="M11" s="11">
-        <v>34548</v>
+        <v>33930</v>
       </c>
       <c r="N11" s="11">
-        <v>33930</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>70394</v>
+        <v>75558</v>
       </c>
       <c r="F12" s="9">
-        <v>75558</v>
+        <v>84605</v>
       </c>
       <c r="G12" s="9">
-        <v>84605</v>
+        <v>66066</v>
       </c>
       <c r="H12" s="9">
-        <v>66066</v>
+        <v>166707</v>
       </c>
       <c r="I12" s="9">
-        <v>166707</v>
+        <v>320877</v>
       </c>
       <c r="J12" s="9">
-        <v>320877</v>
+        <v>93370</v>
       </c>
       <c r="K12" s="9">
-        <v>93370</v>
+        <v>109221</v>
       </c>
       <c r="L12" s="9">
-        <v>109221</v>
+        <v>295507</v>
       </c>
       <c r="M12" s="9">
-        <v>295507</v>
+        <v>230458</v>
       </c>
       <c r="N12" s="9">
-        <v>230458</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>307343</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>403520</v>
+        <v>861688</v>
       </c>
       <c r="F13" s="13">
-        <v>861688</v>
+        <v>1564914</v>
       </c>
       <c r="G13" s="13">
-        <v>1564914</v>
+        <v>1018007</v>
       </c>
       <c r="H13" s="13">
-        <v>1018007</v>
+        <v>1731981</v>
       </c>
       <c r="I13" s="13">
-        <v>1731981</v>
+        <v>1165424</v>
       </c>
       <c r="J13" s="13">
-        <v>1165424</v>
+        <v>1068944</v>
       </c>
       <c r="K13" s="13">
-        <v>1068944</v>
+        <v>1501125</v>
       </c>
       <c r="L13" s="13">
-        <v>1501125</v>
+        <v>1446288</v>
       </c>
       <c r="M13" s="13">
-        <v>1446288</v>
+        <v>559548</v>
       </c>
       <c r="N13" s="13">
-        <v>559548</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2341148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1083,44 +1083,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>403520</v>
+        <v>861688</v>
       </c>
       <c r="F15" s="13">
-        <v>861688</v>
+        <v>1564914</v>
       </c>
       <c r="G15" s="13">
-        <v>1564914</v>
+        <v>1018007</v>
       </c>
       <c r="H15" s="13">
-        <v>1018007</v>
+        <v>1731981</v>
       </c>
       <c r="I15" s="13">
-        <v>1731981</v>
+        <v>1165424</v>
       </c>
       <c r="J15" s="13">
-        <v>1165424</v>
+        <v>1068944</v>
       </c>
       <c r="K15" s="13">
-        <v>1068944</v>
+        <v>1501125</v>
       </c>
       <c r="L15" s="13">
-        <v>1501125</v>
+        <v>1446288</v>
       </c>
       <c r="M15" s="13">
-        <v>1446288</v>
+        <v>559548</v>
       </c>
       <c r="N15" s="13">
-        <v>559548</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2341148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1157,14 +1157,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -1194,155 +1194,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>403612</v>
+        <v>861688</v>
       </c>
       <c r="F18" s="15">
-        <v>861688</v>
+        <v>1564914</v>
       </c>
       <c r="G18" s="15">
-        <v>1564914</v>
+        <v>1018007</v>
       </c>
       <c r="H18" s="15">
-        <v>1018007</v>
+        <v>1731981</v>
       </c>
       <c r="I18" s="15">
-        <v>1731981</v>
+        <v>1165424</v>
       </c>
       <c r="J18" s="15">
-        <v>1165424</v>
+        <v>1068944</v>
       </c>
       <c r="K18" s="15">
-        <v>1068944</v>
+        <v>1501125</v>
       </c>
       <c r="L18" s="15">
-        <v>1501125</v>
+        <v>1446288</v>
       </c>
       <c r="M18" s="15">
-        <v>1446288</v>
+        <v>559548</v>
       </c>
       <c r="N18" s="15">
-        <v>559548</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2341148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>832559</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>614994</v>
       </c>
       <c r="H19" s="11">
-        <v>614994</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>1247966</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>1690466</v>
       </c>
       <c r="K19" s="11">
-        <v>442500</v>
+        <v>607964</v>
       </c>
       <c r="L19" s="11">
-        <v>607964</v>
+        <v>1126406</v>
       </c>
       <c r="M19" s="11">
-        <v>1126406</v>
+        <v>774469</v>
       </c>
       <c r="N19" s="11">
-        <v>774469</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>582676</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-11166</v>
+        <v>-513300</v>
       </c>
       <c r="F20" s="9">
-        <v>-513300</v>
+        <v>-614994</v>
       </c>
       <c r="G20" s="9">
-        <v>217565</v>
+        <v>-921844</v>
       </c>
       <c r="H20" s="9">
-        <v>-921844</v>
+        <v>-326122</v>
       </c>
       <c r="I20" s="9">
-        <v>-326122</v>
+        <v>-1690466</v>
       </c>
       <c r="J20" s="9">
-        <v>-442500</v>
+        <v>-607964</v>
       </c>
       <c r="K20" s="9">
-        <v>-607964</v>
+        <v>-1126406</v>
       </c>
       <c r="L20" s="9">
-        <v>-1126406</v>
+        <v>-774469</v>
       </c>
       <c r="M20" s="9">
-        <v>-774469</v>
+        <v>-582676</v>
       </c>
       <c r="N20" s="9">
-        <v>-582676</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-670564</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>392353</v>
+        <v>348388</v>
       </c>
       <c r="F21" s="13">
-        <v>348388</v>
+        <v>1782479</v>
       </c>
       <c r="G21" s="13">
-        <v>1782479</v>
+        <v>711157</v>
       </c>
       <c r="H21" s="13">
-        <v>711157</v>
+        <v>1405859</v>
       </c>
       <c r="I21" s="13">
-        <v>1405859</v>
+        <v>722924</v>
       </c>
       <c r="J21" s="13">
-        <v>722924</v>
+        <v>2151446</v>
       </c>
       <c r="K21" s="13">
-        <v>2151446</v>
+        <v>982683</v>
       </c>
       <c r="L21" s="13">
-        <v>982683</v>
+        <v>1798225</v>
       </c>
       <c r="M21" s="13">
-        <v>1798225</v>
+        <v>751341</v>
       </c>
       <c r="N21" s="13">
-        <v>751341</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2253260</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1379,44 +1379,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>392353</v>
+        <v>348388</v>
       </c>
       <c r="F23" s="13">
-        <v>348388</v>
+        <v>1782479</v>
       </c>
       <c r="G23" s="13">
-        <v>1782479</v>
+        <v>711157</v>
       </c>
       <c r="H23" s="13">
-        <v>711157</v>
+        <v>1405859</v>
       </c>
       <c r="I23" s="13">
-        <v>1405859</v>
+        <v>722924</v>
       </c>
       <c r="J23" s="13">
-        <v>722924</v>
+        <v>2151446</v>
       </c>
       <c r="K23" s="13">
-        <v>2151446</v>
+        <v>982683</v>
       </c>
       <c r="L23" s="13">
-        <v>982683</v>
+        <v>1798225</v>
       </c>
       <c r="M23" s="13">
-        <v>1798225</v>
+        <v>751341</v>
       </c>
       <c r="N23" s="13">
-        <v>751341</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2253260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1461,7 +1461,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1513,7 +1513,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1522,74 +1522,74 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>21233</v>
+        <v>20005</v>
       </c>
       <c r="F29" s="9">
-        <v>20005</v>
+        <v>12885</v>
       </c>
       <c r="G29" s="9">
-        <v>12885</v>
+        <v>10444</v>
       </c>
       <c r="H29" s="9">
-        <v>10444</v>
+        <v>11251</v>
       </c>
       <c r="I29" s="9">
-        <v>11251</v>
+        <v>9601</v>
       </c>
       <c r="J29" s="9">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="K29" s="9">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="L29" s="9">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="M29" s="9">
-        <v>7103</v>
+        <v>6041</v>
       </c>
       <c r="N29" s="9">
-        <v>6041</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11907</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>21233</v>
+        <v>20005</v>
       </c>
       <c r="F30" s="13">
-        <v>20005</v>
+        <v>12885</v>
       </c>
       <c r="G30" s="13">
-        <v>12885</v>
+        <v>10444</v>
       </c>
       <c r="H30" s="13">
-        <v>10444</v>
+        <v>11251</v>
       </c>
       <c r="I30" s="13">
-        <v>11251</v>
+        <v>9601</v>
       </c>
       <c r="J30" s="13">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="K30" s="13">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="L30" s="13">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="M30" s="13">
-        <v>7103</v>
+        <v>6041</v>
       </c>
       <c r="N30" s="13">
-        <v>6041</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11907</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1604,7 +1604,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1619,7 +1619,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1634,7 +1634,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1686,7 +1686,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
@@ -1695,74 +1695,74 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>40203</v>
+        <v>-25364</v>
       </c>
       <c r="F36" s="9">
-        <v>-25364</v>
+        <v>65054</v>
       </c>
       <c r="G36" s="9">
-        <v>65054</v>
+        <v>11693</v>
       </c>
       <c r="H36" s="9">
-        <v>11693</v>
+        <v>52541</v>
       </c>
       <c r="I36" s="9">
-        <v>52541</v>
+        <v>20192</v>
       </c>
       <c r="J36" s="9">
-        <v>20192</v>
+        <v>31539</v>
       </c>
       <c r="K36" s="9">
-        <v>31539</v>
+        <v>26434</v>
       </c>
       <c r="L36" s="9">
-        <v>26434</v>
+        <v>-9215</v>
       </c>
       <c r="M36" s="9">
-        <v>-9215</v>
+        <v>48741</v>
       </c>
       <c r="N36" s="9">
-        <v>48741</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>40203</v>
+        <v>-25364</v>
       </c>
       <c r="F37" s="13">
-        <v>-25364</v>
+        <v>65054</v>
       </c>
       <c r="G37" s="13">
-        <v>65054</v>
+        <v>11693</v>
       </c>
       <c r="H37" s="13">
-        <v>11693</v>
+        <v>52541</v>
       </c>
       <c r="I37" s="13">
-        <v>52541</v>
+        <v>20192</v>
       </c>
       <c r="J37" s="13">
-        <v>20192</v>
+        <v>31539</v>
       </c>
       <c r="K37" s="13">
-        <v>31539</v>
+        <v>26434</v>
       </c>
       <c r="L37" s="13">
-        <v>26434</v>
+        <v>-9215</v>
       </c>
       <c r="M37" s="13">
-        <v>-9215</v>
+        <v>48741</v>
       </c>
       <c r="N37" s="13">
-        <v>48741</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1777,7 +1777,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1792,7 +1792,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1807,7 +1807,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1868,74 +1868,74 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>41431</v>
+        <v>-18244</v>
       </c>
       <c r="F43" s="9">
-        <v>-18244</v>
+        <v>67495</v>
       </c>
       <c r="G43" s="9">
-        <v>67495</v>
+        <v>10886</v>
       </c>
       <c r="H43" s="9">
-        <v>10886</v>
+        <v>54191</v>
       </c>
       <c r="I43" s="9">
-        <v>54191</v>
+        <v>18195</v>
       </c>
       <c r="J43" s="9">
-        <v>18195</v>
+        <v>27932</v>
       </c>
       <c r="K43" s="9">
-        <v>27932</v>
+        <v>34536</v>
       </c>
       <c r="L43" s="9">
-        <v>34536</v>
+        <v>-8153</v>
       </c>
       <c r="M43" s="9">
-        <v>-8153</v>
+        <v>42874</v>
       </c>
       <c r="N43" s="9">
-        <v>42874</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>41431</v>
+        <v>-18244</v>
       </c>
       <c r="F44" s="13">
-        <v>-18244</v>
+        <v>67495</v>
       </c>
       <c r="G44" s="13">
-        <v>67495</v>
+        <v>10886</v>
       </c>
       <c r="H44" s="13">
-        <v>10886</v>
+        <v>54191</v>
       </c>
       <c r="I44" s="13">
-        <v>54191</v>
+        <v>18195</v>
       </c>
       <c r="J44" s="13">
-        <v>18195</v>
+        <v>27932</v>
       </c>
       <c r="K44" s="13">
-        <v>27932</v>
+        <v>34536</v>
       </c>
       <c r="L44" s="13">
-        <v>34536</v>
+        <v>-8153</v>
       </c>
       <c r="M44" s="13">
-        <v>-8153</v>
+        <v>42874</v>
       </c>
       <c r="N44" s="13">
-        <v>42874</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1950,7 +1950,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1965,7 +1965,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1980,7 +1980,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2032,7 +2032,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2041,74 +2041,74 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>20005</v>
+        <v>12885</v>
       </c>
       <c r="F50" s="9">
-        <v>12885</v>
+        <v>10444</v>
       </c>
       <c r="G50" s="9">
-        <v>10444</v>
+        <v>11251</v>
       </c>
       <c r="H50" s="9">
-        <v>11251</v>
+        <v>9601</v>
       </c>
       <c r="I50" s="9">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="J50" s="9">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="K50" s="9">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="L50" s="9">
-        <v>7103</v>
+        <v>6041</v>
       </c>
       <c r="M50" s="9">
-        <v>6041</v>
+        <v>11907</v>
       </c>
       <c r="N50" s="9">
-        <v>11907</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>20005</v>
+        <v>12885</v>
       </c>
       <c r="F51" s="13">
-        <v>12885</v>
+        <v>10444</v>
       </c>
       <c r="G51" s="13">
-        <v>10444</v>
+        <v>11251</v>
       </c>
       <c r="H51" s="13">
-        <v>11251</v>
+        <v>9601</v>
       </c>
       <c r="I51" s="13">
-        <v>9601</v>
+        <v>11598</v>
       </c>
       <c r="J51" s="13">
-        <v>11598</v>
+        <v>15205</v>
       </c>
       <c r="K51" s="13">
-        <v>15205</v>
+        <v>7103</v>
       </c>
       <c r="L51" s="13">
-        <v>7103</v>
+        <v>6041</v>
       </c>
       <c r="M51" s="13">
-        <v>6041</v>
+        <v>11907</v>
       </c>
       <c r="N51" s="13">
-        <v>11907</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13225</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2138,7 +2138,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2153,7 +2153,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2205,7 +2205,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2214,74 +2214,74 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>287493</v>
+        <v>186270</v>
       </c>
       <c r="F57" s="9">
-        <v>186270</v>
+        <v>106884</v>
       </c>
       <c r="G57" s="9">
-        <v>106884</v>
+        <v>306983</v>
       </c>
       <c r="H57" s="9">
-        <v>306983</v>
+        <v>502921</v>
       </c>
       <c r="I57" s="9">
-        <v>502921</v>
+        <v>371246</v>
       </c>
       <c r="J57" s="9">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="K57" s="9">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="L57" s="9">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="M57" s="9">
-        <v>70543</v>
+        <v>71933</v>
       </c>
       <c r="N57" s="9">
-        <v>71933</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>747405</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>287493</v>
+        <v>186270</v>
       </c>
       <c r="F58" s="13">
-        <v>186270</v>
+        <v>106884</v>
       </c>
       <c r="G58" s="13">
-        <v>106884</v>
+        <v>306983</v>
       </c>
       <c r="H58" s="13">
-        <v>306983</v>
+        <v>502921</v>
       </c>
       <c r="I58" s="13">
-        <v>502921</v>
+        <v>371246</v>
       </c>
       <c r="J58" s="13">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="K58" s="13">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="L58" s="13">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="M58" s="13">
-        <v>70543</v>
+        <v>71933</v>
       </c>
       <c r="N58" s="13">
-        <v>71933</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>747405</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2296,7 +2296,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2311,7 +2311,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2326,7 +2326,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>36</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2378,7 +2378,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -2387,74 +2387,74 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>216901</v>
+        <v>691668</v>
       </c>
       <c r="F64" s="9">
-        <v>691668</v>
+        <v>1665186</v>
       </c>
       <c r="G64" s="9">
-        <v>1665186</v>
+        <v>1125273</v>
       </c>
       <c r="H64" s="9">
-        <v>1125273</v>
+        <v>1410467</v>
       </c>
       <c r="I64" s="9">
-        <v>1410467</v>
+        <v>1089657</v>
       </c>
       <c r="J64" s="9">
-        <v>1089657</v>
+        <v>1336508</v>
       </c>
       <c r="K64" s="9">
-        <v>1336508</v>
+        <v>410157</v>
       </c>
       <c r="L64" s="9">
-        <v>410157</v>
+        <v>1117623</v>
       </c>
       <c r="M64" s="9">
-        <v>1117623</v>
+        <v>970632</v>
       </c>
       <c r="N64" s="9">
-        <v>970632</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1337138</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>216901</v>
+        <v>691668</v>
       </c>
       <c r="F65" s="13">
-        <v>691668</v>
+        <v>1665186</v>
       </c>
       <c r="G65" s="13">
-        <v>1665186</v>
+        <v>1125273</v>
       </c>
       <c r="H65" s="13">
-        <v>1125273</v>
+        <v>1410467</v>
       </c>
       <c r="I65" s="13">
-        <v>1410467</v>
+        <v>1089657</v>
       </c>
       <c r="J65" s="13">
-        <v>1089657</v>
+        <v>1336508</v>
       </c>
       <c r="K65" s="13">
-        <v>1336508</v>
+        <v>410157</v>
       </c>
       <c r="L65" s="13">
-        <v>410157</v>
+        <v>1117623</v>
       </c>
       <c r="M65" s="13">
-        <v>1117623</v>
+        <v>970632</v>
       </c>
       <c r="N65" s="13">
-        <v>970632</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1337138</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2484,7 +2484,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2499,7 +2499,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>37</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2551,7 +2551,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2560,74 +2560,74 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>318124</v>
+        <v>771054</v>
       </c>
       <c r="F71" s="9">
-        <v>771054</v>
+        <v>1465087</v>
       </c>
       <c r="G71" s="9">
-        <v>1465087</v>
+        <v>929335</v>
       </c>
       <c r="H71" s="9">
-        <v>929335</v>
+        <v>1542142</v>
       </c>
       <c r="I71" s="9">
-        <v>1542142</v>
+        <v>822820</v>
       </c>
       <c r="J71" s="9">
-        <v>822820</v>
+        <v>954733</v>
       </c>
       <c r="K71" s="9">
-        <v>954733</v>
+        <v>1359472</v>
       </c>
       <c r="L71" s="9">
-        <v>1359472</v>
+        <v>1116233</v>
       </c>
       <c r="M71" s="9">
-        <v>1116233</v>
+        <v>295160</v>
       </c>
       <c r="N71" s="9">
-        <v>295160</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1998623</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>318124</v>
+        <v>771054</v>
       </c>
       <c r="F72" s="13">
-        <v>771054</v>
+        <v>1465087</v>
       </c>
       <c r="G72" s="13">
-        <v>1465087</v>
+        <v>929335</v>
       </c>
       <c r="H72" s="13">
-        <v>929335</v>
+        <v>1542142</v>
       </c>
       <c r="I72" s="13">
-        <v>1542142</v>
+        <v>822820</v>
       </c>
       <c r="J72" s="13">
-        <v>822820</v>
+        <v>954733</v>
       </c>
       <c r="K72" s="13">
-        <v>954733</v>
+        <v>1359472</v>
       </c>
       <c r="L72" s="13">
-        <v>1359472</v>
+        <v>1116233</v>
       </c>
       <c r="M72" s="13">
-        <v>1116233</v>
+        <v>295160</v>
       </c>
       <c r="N72" s="13">
-        <v>295160</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1998623</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2642,7 +2642,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2657,7 +2657,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2672,7 +2672,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2724,7 +2724,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>29</v>
       </c>
@@ -2733,74 +2733,74 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>186270</v>
+        <v>106884</v>
       </c>
       <c r="F78" s="9">
-        <v>106884</v>
+        <v>306983</v>
       </c>
       <c r="G78" s="9">
-        <v>306983</v>
+        <v>502921</v>
       </c>
       <c r="H78" s="9">
-        <v>502921</v>
+        <v>371246</v>
       </c>
       <c r="I78" s="9">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="J78" s="9">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="K78" s="9">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="L78" s="9">
-        <v>70543</v>
+        <v>71933</v>
       </c>
       <c r="M78" s="9">
-        <v>71933</v>
+        <v>747405</v>
       </c>
       <c r="N78" s="9">
-        <v>747405</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85920</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>186270</v>
+        <v>106884</v>
       </c>
       <c r="F79" s="13">
-        <v>106884</v>
+        <v>306983</v>
       </c>
       <c r="G79" s="13">
-        <v>306983</v>
+        <v>502921</v>
       </c>
       <c r="H79" s="13">
-        <v>502921</v>
+        <v>371246</v>
       </c>
       <c r="I79" s="13">
-        <v>371246</v>
+        <v>638083</v>
       </c>
       <c r="J79" s="13">
-        <v>638083</v>
+        <v>1019858</v>
       </c>
       <c r="K79" s="13">
-        <v>1019858</v>
+        <v>70543</v>
       </c>
       <c r="L79" s="13">
-        <v>70543</v>
+        <v>71933</v>
       </c>
       <c r="M79" s="13">
-        <v>71933</v>
+        <v>747405</v>
       </c>
       <c r="N79" s="13">
-        <v>747405</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85920</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2815,7 +2815,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2830,7 +2830,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2845,7 +2845,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>39</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2897,7 +2897,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -2906,37 +2906,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>13539914</v>
+        <v>9311172</v>
       </c>
       <c r="F85" s="9">
-        <v>9311172</v>
+        <v>8295227</v>
       </c>
       <c r="G85" s="9">
-        <v>8295227</v>
+        <v>29393240</v>
       </c>
       <c r="H85" s="9">
-        <v>29393240</v>
+        <v>44700116</v>
       </c>
       <c r="I85" s="9">
-        <v>44700116</v>
+        <v>38667430</v>
       </c>
       <c r="J85" s="9">
-        <v>38667430</v>
+        <v>55016641</v>
       </c>
       <c r="K85" s="9">
-        <v>55016641</v>
+        <v>67073857</v>
       </c>
       <c r="L85" s="9">
-        <v>67073857</v>
+        <v>9931437</v>
       </c>
       <c r="M85" s="9">
-        <v>9931437</v>
+        <v>11907466</v>
       </c>
       <c r="N85" s="9">
-        <v>11907466</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>62770219</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2951,7 +2951,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2966,7 +2966,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2981,7 +2981,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3033,7 +3033,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -3042,37 +3042,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>5395145</v>
+        <v>-27269674</v>
       </c>
       <c r="F91" s="9">
-        <v>-27269674</v>
+        <v>25596981</v>
       </c>
       <c r="G91" s="9">
-        <v>25596981</v>
+        <v>96234756</v>
       </c>
       <c r="H91" s="9">
-        <v>96234756</v>
+        <v>26845073</v>
       </c>
       <c r="I91" s="9">
-        <v>26845073</v>
+        <v>53964788</v>
       </c>
       <c r="J91" s="9">
-        <v>53964788</v>
+        <v>42376359</v>
       </c>
       <c r="K91" s="9">
-        <v>42376359</v>
+        <v>15516267</v>
       </c>
       <c r="L91" s="9">
-        <v>15516267</v>
+        <v>-121283017</v>
       </c>
       <c r="M91" s="9">
-        <v>-121283017</v>
+        <v>19914076</v>
       </c>
       <c r="N91" s="9">
-        <v>19914076</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30650728</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3087,7 +3087,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3102,7 +3102,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3117,7 +3117,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>42</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3169,7 +3169,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3178,37 +3178,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>7678405</v>
+        <v>-42263429</v>
       </c>
       <c r="F97" s="9">
-        <v>-42263429</v>
+        <v>21706600</v>
       </c>
       <c r="G97" s="9">
-        <v>21706600</v>
+        <v>85369741</v>
       </c>
       <c r="H97" s="9">
-        <v>85369741</v>
+        <v>28457530</v>
       </c>
       <c r="I97" s="9">
-        <v>28457530</v>
+        <v>45222314</v>
       </c>
       <c r="J97" s="9">
-        <v>45222314</v>
+        <v>34180617</v>
       </c>
       <c r="K97" s="9">
-        <v>34180617</v>
+        <v>39363910</v>
       </c>
       <c r="L97" s="9">
-        <v>39363910</v>
+        <v>-136910708</v>
       </c>
       <c r="M97" s="9">
-        <v>-136910708</v>
+        <v>6884359</v>
       </c>
       <c r="N97" s="9">
-        <v>6884359</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>47240953</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3223,7 +3223,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3238,7 +3238,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3253,7 +3253,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>43</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3305,7 +3305,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -3322,29 +3322,29 @@
       <c r="G103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>44</v>
+      <c r="H103" s="9">
+        <v>38667430</v>
       </c>
       <c r="I103" s="9">
-        <v>38667430</v>
+        <v>55016641</v>
       </c>
       <c r="J103" s="9">
-        <v>55016641</v>
+        <v>67073857</v>
       </c>
       <c r="K103" s="9">
-        <v>67073857</v>
+        <v>9931437</v>
       </c>
       <c r="L103" s="9">
-        <v>9931437</v>
+        <v>11907466</v>
       </c>
       <c r="M103" s="9">
-        <v>11907466</v>
+        <v>62770219</v>
       </c>
       <c r="N103" s="9">
-        <v>62770219</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6496786</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3359,7 +3359,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3374,7 +3374,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3389,7 +3389,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3441,7 +3441,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>47</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>48</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>49</v>
       </c>
@@ -3589,155 +3589,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>15171</v>
+        <v>16149</v>
       </c>
       <c r="F113" s="9">
-        <v>16149</v>
+        <v>31454</v>
       </c>
       <c r="G113" s="9">
-        <v>31454</v>
+        <v>16868</v>
       </c>
       <c r="H113" s="9">
-        <v>16868</v>
+        <v>-13259</v>
       </c>
       <c r="I113" s="9">
-        <v>-13259</v>
+        <v>2394</v>
       </c>
       <c r="J113" s="9">
-        <v>2394</v>
+        <v>106400</v>
       </c>
       <c r="K113" s="9">
-        <v>106400</v>
+        <v>23891</v>
       </c>
       <c r="L113" s="9">
-        <v>23891</v>
+        <v>55194</v>
       </c>
       <c r="M113" s="9">
-        <v>55194</v>
+        <v>43816</v>
       </c>
       <c r="N113" s="9">
-        <v>43816</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28880</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>3504</v>
+        <v>3208</v>
       </c>
       <c r="F114" s="11">
-        <v>3208</v>
+        <v>4279</v>
       </c>
       <c r="G114" s="11">
-        <v>4279</v>
+        <v>2474</v>
       </c>
       <c r="H114" s="11">
-        <v>2474</v>
+        <v>9911</v>
       </c>
       <c r="I114" s="11">
-        <v>9911</v>
+        <v>9566</v>
       </c>
       <c r="J114" s="11">
-        <v>9566</v>
+        <v>15294</v>
       </c>
       <c r="K114" s="11">
-        <v>15294</v>
+        <v>3146</v>
       </c>
       <c r="L114" s="11">
-        <v>3146</v>
+        <v>4322</v>
       </c>
       <c r="M114" s="11">
-        <v>4322</v>
+        <v>2234</v>
       </c>
       <c r="N114" s="11">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>4173</v>
+        <v>5815</v>
       </c>
       <c r="F115" s="9">
-        <v>5815</v>
+        <v>5859</v>
       </c>
       <c r="G115" s="9">
-        <v>5859</v>
+        <v>6587</v>
       </c>
       <c r="H115" s="9">
-        <v>6587</v>
+        <v>7104</v>
       </c>
       <c r="I115" s="9">
-        <v>7104</v>
+        <v>7047</v>
       </c>
       <c r="J115" s="9">
-        <v>7047</v>
+        <v>6879</v>
       </c>
       <c r="K115" s="9">
-        <v>6879</v>
+        <v>6843</v>
       </c>
       <c r="L115" s="9">
-        <v>6843</v>
+        <v>7323</v>
       </c>
       <c r="M115" s="9">
-        <v>7323</v>
+        <v>6749</v>
       </c>
       <c r="N115" s="9">
-        <v>6749</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>19707</v>
+        <v>16057</v>
       </c>
       <c r="F116" s="11">
-        <v>16057</v>
+        <v>21874</v>
       </c>
       <c r="G116" s="11">
-        <v>21874</v>
+        <v>20121</v>
       </c>
       <c r="H116" s="11">
-        <v>20121</v>
+        <v>90138</v>
       </c>
       <c r="I116" s="11">
-        <v>90138</v>
+        <v>239357</v>
       </c>
       <c r="J116" s="11">
-        <v>239357</v>
+        <v>-260714</v>
       </c>
       <c r="K116" s="11">
-        <v>-260714</v>
+        <v>48567</v>
       </c>
       <c r="L116" s="11">
-        <v>48567</v>
+        <v>23776</v>
       </c>
       <c r="M116" s="11">
-        <v>23776</v>
+        <v>44820</v>
       </c>
       <c r="N116" s="11">
-        <v>44820</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>54</v>
       </c>
@@ -3774,81 +3774,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>27839</v>
+        <v>34329</v>
       </c>
       <c r="F118" s="11">
-        <v>34329</v>
+        <v>21139</v>
       </c>
       <c r="G118" s="11">
-        <v>21139</v>
+        <v>20016</v>
       </c>
       <c r="H118" s="11">
-        <v>20016</v>
+        <v>72813</v>
       </c>
       <c r="I118" s="11">
-        <v>72813</v>
+        <v>62513</v>
       </c>
       <c r="J118" s="11">
-        <v>62513</v>
+        <v>225511</v>
       </c>
       <c r="K118" s="11">
-        <v>225511</v>
+        <v>26774</v>
       </c>
       <c r="L118" s="11">
-        <v>26774</v>
+        <v>204892</v>
       </c>
       <c r="M118" s="11">
-        <v>204892</v>
+        <v>132839</v>
       </c>
       <c r="N118" s="11">
-        <v>132839</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>222920</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>70394</v>
+        <v>75558</v>
       </c>
       <c r="F119" s="15">
-        <v>75558</v>
+        <v>84605</v>
       </c>
       <c r="G119" s="15">
-        <v>84605</v>
+        <v>66066</v>
       </c>
       <c r="H119" s="15">
-        <v>66066</v>
+        <v>166707</v>
       </c>
       <c r="I119" s="15">
-        <v>166707</v>
+        <v>320877</v>
       </c>
       <c r="J119" s="15">
-        <v>320877</v>
+        <v>93370</v>
       </c>
       <c r="K119" s="15">
-        <v>93370</v>
+        <v>109221</v>
       </c>
       <c r="L119" s="15">
-        <v>109221</v>
+        <v>295507</v>
       </c>
       <c r="M119" s="15">
-        <v>295507</v>
+        <v>230458</v>
       </c>
       <c r="N119" s="15">
-        <v>230458</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>307343</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3863,7 +3863,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3878,7 +3878,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3893,7 +3893,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>56</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3925,7 +3925,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>57</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>59</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>61</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>63</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>65</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>67</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>69</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>71</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>73</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>74</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>63</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>77</v>
       </c>
